--- a/excel_template/daftar_gaji_template.xlsx
+++ b/excel_template/daftar_gaji_template.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\penggajian-kafka\excel_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBAD9006-40D1-4BE9-A484-2026FB10A655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0CE91C-7D6F-422C-88FE-FE5A6A668BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{CA5C31DB-1BF9-4115-B8F8-014E386A98F1}"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{CA5C31DB-1BF9-4115-B8F8-014E386A98F1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="pegawai" sheetId="1" r:id="rId1"/>
+    <sheet name="kontrak" sheetId="2" r:id="rId2"/>
+    <sheet name="HGPKP1" sheetId="3" r:id="rId3"/>
+    <sheet name="HHTKKP1" sheetId="4" r:id="rId4"/>
+    <sheet name="HG1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="65">
   <si>
     <t>Telp. &amp; Fax. (0281)-632324</t>
   </si>
@@ -156,13 +160,125 @@
   </si>
   <si>
     <t>Jalan Prof. DR. Suharso No. 52 Purwokerto 53114</t>
+  </si>
+  <si>
+    <t>Daftar: Honor Tenaga Kontrak</t>
+  </si>
+  <si>
+    <t>CABANG AJIBARANG</t>
+  </si>
+  <si>
+    <t>Honor Bulanan</t>
+  </si>
+  <si>
+    <t>Pembulatan</t>
+  </si>
+  <si>
+    <t>Penerimaan</t>
+  </si>
+  <si>
+    <t>Astek (2%)</t>
+  </si>
+  <si>
+    <t>JPn (1%)</t>
+  </si>
+  <si>
+    <t>JKN (1%)</t>
+  </si>
+  <si>
+    <t>Honor</t>
+  </si>
+  <si>
+    <t>Jml. Potongan</t>
+  </si>
+  <si>
+    <t>Rp.</t>
+  </si>
+  <si>
+    <t>Daftar: Himpunan Gaji Pegawai</t>
+  </si>
+  <si>
+    <t>Jml Pegawai</t>
+  </si>
+  <si>
+    <t>Gaji Pokok
+Tunj. Is/Su
+Tunj. Anak
+Jumlah</t>
+  </si>
+  <si>
+    <t>Tunj. Jabatan
+Tunj. Beras
+TKK
+Tunj. Kes</t>
+  </si>
+  <si>
+    <t>Tunj. Air
+Tunj. PPH
+Pengh. Kotor
+Pembulatan</t>
+  </si>
+  <si>
+    <t>Iur. Pen 5.00%
+Astek 2.00%
+Sewa Rumah
+JPN
+Pajak</t>
+  </si>
+  <si>
+    <t>BPJS Kes.
+TKK
+PPh Ps.21
+Jml. Potongan</t>
+  </si>
+  <si>
+    <t>Dewan Pengawas dan Sekretariat</t>
+  </si>
+  <si>
+    <t>Daftar: Himpunan Honor Tenaga Kontrak Kantor Pusat</t>
+  </si>
+  <si>
+    <t>HIMPUNAN GAJI</t>
+  </si>
+  <si>
+    <t>BULAN : JANUARI 2025</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>URAIAN</t>
+  </si>
+  <si>
+    <t>PUSAT</t>
+  </si>
+  <si>
+    <t>CABANG</t>
+  </si>
+  <si>
+    <t>JUMLAH</t>
+  </si>
+  <si>
+    <t>PURWOKERTO 1</t>
+  </si>
+  <si>
+    <t>PURWOKERTO 2</t>
+  </si>
+  <si>
+    <t>AJIBARANG</t>
+  </si>
+  <si>
+    <t>WANGON</t>
+  </si>
+  <si>
+    <t>BANYUMAS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +293,28 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -186,7 +324,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -218,15 +356,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -236,8 +407,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -555,14 +765,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10F56E0-553C-4844-BA83-1296E625C3C0}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.08984375" customWidth="1"/>
     <col min="2" max="2" width="31.08984375" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="15.36328125" customWidth="1"/>
     <col min="6" max="6" width="15.453125" customWidth="1"/>
@@ -574,205 +785,207 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
     </row>
     <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="A4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
     </row>
     <row r="5" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6" t="s">
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6" t="s">
+      <c r="J9" s="23"/>
+      <c r="K9" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="7" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="L11" s="4" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A3:L3"/>
     <mergeCell ref="L9:L10"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A4:L4"/>
@@ -784,8 +997,876 @@
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="K9:K10"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A3:L3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBDBC844-9AD5-40C6-BA42-D1E401E48C58}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.36328125" customWidth="1"/>
+    <col min="2" max="2" width="30.36328125" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" customWidth="1"/>
+    <col min="4" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="17.1796875" customWidth="1"/>
+    <col min="11" max="11" width="15.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="I9:I10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB42158B-02FD-477B-9653-FE3651B0B3C7}">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" customWidth="1"/>
+    <col min="4" max="9" width="13.1796875" customWidth="1"/>
+    <col min="10" max="10" width="14.81640625" customWidth="1"/>
+    <col min="11" max="11" width="14.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>1</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11">
+        <v>0</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0</v>
+      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="11">
+        <v>0</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11"/>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13">
+        <v>0</v>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16">
+        <v>0</v>
+      </c>
+      <c r="G15" s="16">
+        <v>0</v>
+      </c>
+      <c r="H15" s="16">
+        <v>0</v>
+      </c>
+      <c r="I15" s="17">
+        <v>0</v>
+      </c>
+      <c r="J15" s="16"/>
+      <c r="K15" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="H8:I8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2AEC43-D2BD-4215-B26E-C9804EB13E54}">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D1:H1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.90625" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="13.453125" customWidth="1"/>
+    <col min="9" max="9" width="16.26953125" customWidth="1"/>
+    <col min="10" max="10" width="13.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="I9:I10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC19297-A071-4853-AE5F-77C4BA2145DA}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.90625" customWidth="1"/>
+    <col min="2" max="2" width="33.7265625" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" customWidth="1"/>
+    <col min="4" max="8" width="18.26953125" customWidth="1"/>
+    <col min="9" max="9" width="20.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+    </row>
+    <row r="2" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="26"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="I4:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
